--- a/public/sala/aula-03/Aula3-Tabela Geral de Aliquotas de ICMS.xlsx
+++ b/public/sala/aula-03/Aula3-Tabela Geral de Aliquotas de ICMS.xlsx
@@ -1495,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="AK13" s="25" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AL13" s="26"/>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="AK16" s="38" t="str">
         <f>(VLOOKUP(AK11,C:AE,VLOOKUP(AK13,AH:AI,2,0),0))&amp;" %"</f>
-        <v>7 %</v>
+        <v>12 %</v>
       </c>
       <c r="AL16" s="26"/>
     </row>
